--- a/polls/ICRA2020Workshops.xlsx
+++ b/polls/ICRA2020Workshops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E7B7A-AD5C-49CA-AA78-697762A1C6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537563C-5A5A-43D6-BD39-6E1FAF50EFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,9 +639,6 @@
     <t>Robot Accident Investigation: a case study in Responsible Robotics</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mjGW52_BvPc&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Dag Balkmar</t>
   </si>
   <si>
@@ -841,6 +838,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1hrYXzCPe_V8FplsBDMaamCOMuf4QZXbF/preview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/mjGW52_BvPc</t>
   </si>
 </sst>
 </file>
@@ -1237,20 +1237,20 @@
   <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M1" t="s">
         <v>33</v>
@@ -1400,43 +1400,43 @@
         <v>142</v>
       </c>
       <c r="AY1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>246</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>247</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>248</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>249</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>250</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>251</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>252</v>
       </c>
-      <c r="BF1" t="s">
-        <v>253</v>
-      </c>
       <c r="BG1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH1" t="s">
         <v>261</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>262</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>263</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>264</v>
-      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="AD2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1497,12 +1497,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1613,7 +1613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K9" t="s">
         <v>100</v>
@@ -1813,7 +1813,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2031,12 +2031,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
         <v>200</v>
@@ -2057,166 +2057,166 @@
         <v>204</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K15" t="s">
         <v>205</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>206</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>207</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" t="s">
         <v>209</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>210</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>211</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" t="s">
         <v>213</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>214</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>215</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" t="s">
         <v>217</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>218</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>219</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" t="s">
         <v>221</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>222</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>223</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" t="s">
         <v>225</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>226</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>227</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AI15" t="s">
         <v>229</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>230</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>231</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AM15" t="s">
         <v>233</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>234</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>235</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AQ15" t="s">
         <v>237</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>238</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>239</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AT15" s="1" t="s">
+      <c r="AU15" t="s">
         <v>241</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>242</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>243</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AX15" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="AY15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>254</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>255</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="BB15" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="BC15" t="s">
         <v>171</v>
       </c>
       <c r="BD15" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE15" t="s">
         <v>258</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="BF15" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="BG15" t="s">
         <v>79</v>
       </c>
       <c r="BH15" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI15" t="s">
         <v>265</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BJ15" s="1" t="s">
-        <v>267</v>
-      </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
   </sheetData>
@@ -2260,23 +2260,24 @@
     <hyperlink ref="D13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="D15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="R15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="V15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="Z15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AD15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AH15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AL15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AP15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AT15" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AX15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="BB15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="BF15" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="BJ15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="R15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Z15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AD15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AH15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AL15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AP15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AT15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AX15" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="BB15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="BF15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="BJ15" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J9" r:id="rId53" xr:uid="{F6D4B88A-C6E6-4468-97F9-C526CEE91C2B}"/>
+    <hyperlink ref="J15" r:id="rId54" xr:uid="{C9E3645C-04D8-4200-BC9B-9B7ECA30CE64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -2286,7 +2287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2298,7 +2299,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/polls/ICRA2020Workshops.xlsx
+++ b/polls/ICRA2020Workshops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537563C-5A5A-43D6-BD39-6E1FAF50EFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE068435-8A93-407B-884A-1E397D37C4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Just single 5-Hr Youtube video: https://www.youtube.com/watch?v=-lEVvtsfz0I&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full-day Workshop on: Human-Swarm Interaction </t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Physical Human-Robot Interaction</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=_LgJaqya9xc&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=2&amp;t=1478s </t>
-  </si>
-  <si>
     <t>Andrea Cherubini</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>From perception to inter-action</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rlqKbeIMVyE&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=3&amp;t=0s</t>
-  </si>
-  <si>
     <t>Institution 3</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>On the use of sensorimotor coordinations for intuitive and ecological robotic assistance to gesture</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=boZAgutHjfo&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=4&amp;t=0s</t>
-  </si>
-  <si>
     <t>Speaker 4</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
     <t>Modeling human sensorimotor control for better control of surgical robots</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4_O8X6CuGek&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=5&amp;t=0s</t>
-  </si>
-  <si>
     <t>Speaker 5</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>Quantitative models of human performance facilitate physical collaboration with robots</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=AEAYZH0naTc&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=6&amp;t=0s</t>
-  </si>
-  <si>
     <t>Speaker 6</t>
   </si>
   <si>
@@ -222,9 +204,6 @@
     <t>Comprehensive physiological assessment of human-robot interactions</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ImgxU1nK1kw&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=7&amp;t=0s</t>
-  </si>
-  <si>
     <t>Speaker 7</t>
   </si>
   <si>
@@ -246,9 +225,6 @@
     <t>Whole-Body Teleoperation of Humanoid Robots via Bilateral Feedback for Dynamic Physical Interactions</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0Fevd9GAgbQ&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=8&amp;t=0s</t>
-  </si>
-  <si>
     <t>Speaker 8</t>
   </si>
   <si>
@@ -270,9 +246,6 @@
     <t>Panel Discussion of the ICRA 2020 pHRI Workshop</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=8p2lcSHZQao&amp;list=PLaViAl2WLPMeuNFyO78bHpOCXCS3-hxM4&amp;index=9&amp;t=0s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Learning of Manual Skills in Humans and Robots </t>
   </si>
   <si>
@@ -291,9 +264,6 @@
     <t>https://brain-pil.github.io/icra2020/</t>
   </si>
   <si>
-    <t>Just single 5-Hr Youtube video: https://www.youtube.com/watch?v=QMOTv2TXjzE</t>
-  </si>
-  <si>
     <t>ViTac 2020: Closing the Perception-Action Loop with Vision and Tactile Sensing</t>
   </si>
   <si>
@@ -333,9 +303,6 @@
     <t>A Dynamic Object-invariant Space for Dynamic Visual SLAM</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1RqwXa3Q7rUbbPGdpZb4ILGwjxj3tNCPY/view</t>
-  </si>
-  <si>
     <t>Luca Carlone</t>
   </si>
   <si>
@@ -345,9 +312,6 @@
     <t>Beyond SLAM: Actionable Perception of Places, Objects and Humans</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1rnsADN83_MEA--FFUve6fwuk-HV0sMvB/view</t>
-  </si>
-  <si>
     <t>Daniel Cremers</t>
   </si>
   <si>
@@ -357,9 +321,6 @@
     <t>Deep Direct Visual SLAM</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ievpwgBnnL6TJsUQi4kvfQcxSHzRhmbD/view</t>
-  </si>
-  <si>
     <t>Jonathan Gammell</t>
   </si>
   <si>
@@ -369,9 +330,6 @@
     <t>Towards Metric Multimotion Estimation</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1-C9glznoTbuLZk1omOuYzAJ0ENTSizIF/view</t>
-  </si>
-  <si>
     <t>Kynan Eng</t>
   </si>
   <si>
@@ -381,9 +339,6 @@
     <t>Understanding Performance Characteristics of Neuromorphic Event-based Vision Sensors</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19NNc29sXFZcozV78hiFw_PhOmrB2nXnh/view</t>
-  </si>
-  <si>
     <t>Wolfram Burgard</t>
   </si>
   <si>
@@ -393,9 +348,6 @@
     <t>Probabilistic and Machine Learning Approaches for Autonomous Robots and Automated Driving</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PuMLkYQy2Kk&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Speaker 9</t>
   </si>
   <si>
@@ -417,9 +369,6 @@
     <t>Cross-modal Transfer Learning for Segmentation of Non-Stationary Objects Using LiDAR Intensity Data</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/17XNVLklY5rmvEizuwAxNHOx3Bc3PBTp5/view</t>
-  </si>
-  <si>
     <t>Speaker 10</t>
   </si>
   <si>
@@ -456,9 +405,6 @@
     <t xml:space="preserve">Q&amp;A Session </t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1_-oJSpLyYNUfz7ioW3kaAArWhnqkQHkg/view</t>
-  </si>
-  <si>
     <t>2nd Workshop on Long-Term Human Motion Prediction</t>
   </si>
   <si>
@@ -486,12 +432,6 @@
     <t>LHMP 2020, Part 1: Introduction</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=8Qf4cD0UBA8&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=2&amp;t=0s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=S4SNZ0WPGsA&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=3&amp;t=0s</t>
-  </si>
-  <si>
     <t>Marco Pavone</t>
   </si>
   <si>
@@ -501,9 +441,6 @@
     <t>Multimodal Deep Generative Models for Intent Prediction</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=fL_jEG1m7yY&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=4&amp;t=0s</t>
-  </si>
-  <si>
     <t>Dariu Gavrila</t>
   </si>
   <si>
@@ -513,9 +450,6 @@
     <t>Predictive Motion Models for Vulnerable Road Users</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Q4quwZZgqkM&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=5&amp;t=0s</t>
-  </si>
-  <si>
     <t>Adrien Gaidon</t>
   </si>
   <si>
@@ -525,18 +459,12 @@
     <t>Spatiotemporal Relationship Reasoning for Pedestrian Intent Prediction</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GClnvAt0F2k&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=6&amp;t=0s</t>
-  </si>
-  <si>
     <t>Dorsa Sadigh</t>
   </si>
   <si>
     <t>When our Human Modeling Assumptions Fail: The effects of risk, conventions, and non-stationarity on long-term human-robot interaction</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y4-aq_xDJRA&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=7&amp;t=0s</t>
-  </si>
-  <si>
     <t>Anca Dragan</t>
   </si>
   <si>
@@ -546,9 +474,6 @@
     <t>UC Berkley</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lV84LAcxwaA&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=8&amp;t=0s</t>
-  </si>
-  <si>
     <t>Heni Ben Amor</t>
   </si>
   <si>
@@ -558,9 +483,6 @@
     <t>Learning to Predict and Respond for Human-Robot Interaction</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ZTIwxXQke-8&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=9&amp;t=0s</t>
-  </si>
-  <si>
     <t>Parth Kothari</t>
   </si>
   <si>
@@ -570,15 +492,9 @@
     <t>TrajNet++ prediction challenge</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=pIgLJm2V5aE&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=10&amp;t=0s</t>
-  </si>
-  <si>
     <t>Conclusions</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6vNhiGsvMi8&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=11&amp;t=0s</t>
-  </si>
-  <si>
     <t>Opportunities and Challenges in Space Robotics</t>
   </si>
   <si>
@@ -621,9 +537,6 @@
     <t>https://polytechnic.purdue.edu/facilities/human-interactive-robotics-lab-hirolab/ieee-icra-2020-workshop</t>
   </si>
   <si>
-    <t>3-hour YouTube video: https://www.youtube.com/watch?v=uyzOpErD5Yk&amp;feature=youtu.be&amp;_ga=2.253787208.1111293954.1595636244-240573070.1595636244</t>
-  </si>
-  <si>
     <t xml:space="preserve">Masoumeh Mansouri*, Martim Brandao, Martin Magnusson </t>
   </si>
   <si>
@@ -648,9 +561,6 @@
     <t>Masculinity and autonomous vehicles</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=sDF3DahVsdQ&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Hildegunn Kyvik Nordås</t>
   </si>
   <si>
@@ -660,9 +570,6 @@
     <t>Labour market effects of artificial intelligence</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=T2H6sZHgjjI&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Christoph Lutz</t>
   </si>
   <si>
@@ -672,9 +579,6 @@
     <t>Privacy issues in robotics</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Q4xJx0Y_lxg&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Tommaso Colombino, Shreepriya Shreepriya, Danilo Gallo</t>
   </si>
   <si>
@@ -684,9 +588,6 @@
     <t>Designing a robot platform for disabled employees: some practical ethical considerations</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=gfMXVJZDoFE&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Júlia Pareto Boada</t>
   </si>
   <si>
@@ -696,9 +597,6 @@
     <t>Social robotics and the outsource of agency: untangling the ethical approach</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=HVNoTD8Mjhs&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Benjamin Krarup, Senka Krivic, Felix Lindner, Derek Long</t>
   </si>
   <si>
@@ -708,9 +606,6 @@
     <t>Towards Contrastive Explanations for Comparing the Ethics of Plans</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=uORKGOfvU3g&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>P. Michael Furlong</t>
   </si>
   <si>
@@ -720,9 +615,6 @@
     <t>Autonomy and Economic Pressures to Minimize Costs Conflicts with a Consumer Economy</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3kixNmhEVuU&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Ludovic Righetti</t>
   </si>
   <si>
@@ -732,9 +624,6 @@
     <t>Dual use issues in robotics</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0zd0OS1MbVs&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>AJung Moon</t>
   </si>
   <si>
@@ -744,9 +633,6 @@
     <t>Ethical human-robot interaction</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ZveRrENxTvY&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Tathagata Chakraborti</t>
   </si>
   <si>
@@ -756,9 +642,6 @@
     <t>404. Expected plan not found</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=OG74ljpaNaM&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Speaker 12</t>
   </si>
   <si>
@@ -792,18 +675,12 @@
     <t>Methods for privacy-aware robotics</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=79z8DvM_1Do&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>University of California Berkeley</t>
   </si>
   <si>
     <t>Value alignment in robotics</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=j2501eD2BDI&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Speaker 14</t>
   </si>
   <si>
@@ -822,9 +699,6 @@
     <t>Panel Discussion</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MZeL25m6M-s&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Workshop Number</t>
   </si>
   <si>
@@ -841,6 +715,132 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/mjGW52_BvPc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/8Qf4cD0UBA8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sDF3DahVsdQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/T2H6sZHgjjI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Q4xJx0Y_lxg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/gfMXVJZDoFE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/HVNoTD8Mjhs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/uORKGOfvU3g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/3kixNmhEVuU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/0zd0OS1MbVs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ZveRrENxTvY</t>
+  </si>
+  <si>
+    <t>Just single 5-Hr Youtube video: https://www.youtube.com/embed/QMOTv2TXjzE</t>
+  </si>
+  <si>
+    <t>Just single 5-Hr Youtube video: https://www.youtube.com/embed/-lEVvtsfz0I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/PuMLkYQy2Kk</t>
+  </si>
+  <si>
+    <t>3-hour YouTube video: https://www.youtube.com/embed/uyzOpErD5Yk&amp;_ga=2.253787208.1111293954.1595636244-240573070.1595636244</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/OG74ljpaNaM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/79z8DvM_1Do</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/j2501eD2BDI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MZeL25m6M-s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/6vNhiGsvMi8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/pIgLJm2V5aE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ZTIwxXQke-8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/lV84LAcxwaA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/y4-aq_xDJRA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/GClnvAt0F2k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/S4SNZ0WPGsA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/fL_jEG1m7yY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Q4quwZZgqkM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/rlqKbeIMVyE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/boZAgutHjfo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/4_O8X6CuG다</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/AEAYZH0naTc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ImgxU1nK1kw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/0Fevd9GAgbQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/8p2lcSHZQao</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_LgJaqya9xc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RqwXa3Q7rUbbPGdpZb4ILGwjxj3tNCPY/preview</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rnsADN83_MEA--FFUve6fwuk-HV0sMvB/preview</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ievpwgBnnL6TJsUQi4kvfQcxSHzRhmbD/preview</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-C9glznoTbuLZk1omOuYzAJ0ENTSizIF/preview</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19NNc29sXFZcozV78hiFw_PhOmrB2nXnh/preview</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17XNVLklY5rmvEizuwAxNHOx3Bc3PBTp5/preview</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_-oJSpLyYNUfz7ioW3kaAArWhnqkQHkg/preview</t>
   </si>
 </sst>
 </file>
@@ -1237,20 +1237,21 @@
   <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="108.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1268,172 +1269,172 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
-        <v>270</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
-        <v>51</v>
-      </c>
       <c r="X1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>78</v>
-      </c>
       <c r="AM1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW1" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AX1" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>142</v>
-      </c>
       <c r="AY1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="AZ1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="BA1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="BB1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="BC1" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="BD1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="BE1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="BF1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="BG1" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="BH1" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="BI1" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="BJ1" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
@@ -1477,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
@@ -1485,13 +1486,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1502,115 +1503,115 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W5" t="s">
         <v>50</v>
       </c>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA5" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AB5" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE5" t="s">
         <v>64</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AF5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AG5" t="s">
         <v>66</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI5" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>72</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>81</v>
-      </c>
       <c r="AL5" s="1" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
@@ -1618,19 +1619,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
@@ -1638,19 +1639,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
@@ -1658,19 +1659,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
@@ -1678,139 +1679,139 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" t="s">
         <v>97</v>
       </c>
-      <c r="H9" t="s">
+      <c r="U9" t="s">
         <v>98</v>
       </c>
-      <c r="I9" t="s">
+      <c r="V9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W9" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>106</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" t="s">
-        <v>108</v>
-      </c>
-      <c r="T9" t="s">
-        <v>109</v>
-      </c>
-      <c r="U9" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AQ9" t="s">
         <v>119</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AR9" t="s">
         <v>120</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AS9" t="s">
         <v>121</v>
       </c>
-      <c r="AG9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>138</v>
-      </c>
       <c r="AT9" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="AU9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AV9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AW9" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
@@ -1818,139 +1819,139 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" t="s">
+        <v>141</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W10" t="s">
+        <v>142</v>
+      </c>
+      <c r="X10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>151</v>
       </c>
-      <c r="H10" t="s">
+      <c r="AK10" t="s">
         <v>152</v>
       </c>
-      <c r="I10" t="s">
+      <c r="AL10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM10" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="AN10" t="s">
         <v>154</v>
       </c>
-      <c r="K10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" t="s">
-        <v>150</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="AO10" t="s">
         <v>155</v>
       </c>
-      <c r="O10" t="s">
-        <v>156</v>
-      </c>
-      <c r="P10" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>158</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S10" t="s">
-        <v>160</v>
-      </c>
-      <c r="T10" t="s">
-        <v>161</v>
-      </c>
-      <c r="U10" t="s">
-        <v>162</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W10" t="s">
-        <v>164</v>
-      </c>
-      <c r="X10" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>181</v>
-      </c>
       <c r="AP10" s="1" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="AQ10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AR10" t="s">
         <v>1</v>
       </c>
       <c r="AS10" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
@@ -1958,19 +1959,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
@@ -1978,19 +1979,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -1999,13 +2000,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -2016,19 +2017,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
@@ -2036,184 +2037,184 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O15" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S15" t="s">
+        <v>182</v>
+      </c>
+      <c r="T15" t="s">
+        <v>183</v>
+      </c>
+      <c r="U15" t="s">
+        <v>184</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W15" t="s">
+        <v>185</v>
+      </c>
+      <c r="X15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS15" t="s">
         <v>202</v>
-      </c>
-      <c r="H15" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" t="s">
-        <v>204</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K15" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15" t="s">
-        <v>206</v>
-      </c>
-      <c r="M15" t="s">
-        <v>207</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O15" t="s">
-        <v>209</v>
-      </c>
-      <c r="P15" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>211</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S15" t="s">
-        <v>213</v>
-      </c>
-      <c r="T15" t="s">
-        <v>214</v>
-      </c>
-      <c r="U15" t="s">
-        <v>215</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W15" t="s">
-        <v>217</v>
-      </c>
-      <c r="X15" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>239</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>240</v>
       </c>
       <c r="AU15" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="AV15" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="AW15" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AY15" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="AZ15" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="BA15" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="BC15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="BD15" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="BE15" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="BG15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="BH15" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="BI15" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="BJ15" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
@@ -2236,48 +2237,47 @@
     <hyperlink ref="D7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="R9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="V9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Z9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AD9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AH9" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AP9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AX9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="N10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="R10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="V10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Z10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AD10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AH10" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AL10" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AP10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AT10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="R15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="V15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="Z15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AD15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AH15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AL15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AP15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AT15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AX15" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="BB15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="BF15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="BJ15" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J9" r:id="rId53" xr:uid="{F6D4B88A-C6E6-4468-97F9-C526CEE91C2B}"/>
-    <hyperlink ref="J15" r:id="rId54" xr:uid="{C9E3645C-04D8-4200-BC9B-9B7ECA30CE64}"/>
+    <hyperlink ref="V9" r:id="rId16" display="https://drive.google.com/file/d/1ievpwgBnnL6TJsUQi4kvfQcxSHzRhmbD/view" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Z9" r:id="rId17" display="https://drive.google.com/file/d/1-C9glznoTbuLZk1omOuYzAJ0ENTSizIF/view" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AD9" r:id="rId18" display="https://drive.google.com/file/d/19NNc29sXFZcozV78hiFw_PhOmrB2nXnh/view" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AH9" r:id="rId19" display="https://www.youtube.com/watch?v=PuMLkYQy2Kk&amp;feature=youtu.be" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AP9" r:id="rId20" display="https://drive.google.com/file/d/17XNVLklY5rmvEizuwAxNHOx3Bc3PBTp5/view" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AX9" r:id="rId21" display="https://drive.google.com/file/d/1_-oJSpLyYNUfz7ioW3kaAArWhnqkQHkg/view" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J10" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="R10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Z10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AD10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AL10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AP10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AT10" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D14" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D15" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N15" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="R15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Z15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AD15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AH15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AL15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AP15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AT15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AX15" r:id="rId46" display="https://www.youtube.com/watch?v=OG74ljpaNaM&amp;feature=youtu.be" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="BB15" r:id="rId47" display="https://www.youtube.com/watch?v=79z8DvM_1Do&amp;feature=youtu.be" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="BF15" r:id="rId48" display="https://www.youtube.com/watch?v=j2501eD2BDI&amp;feature=youtu.be" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="BJ15" r:id="rId49" display="https://www.youtube.com/watch?v=MZeL25m6M-s&amp;feature=youtu.be" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J9" r:id="rId50" xr:uid="{F6D4B88A-C6E6-4468-97F9-C526CEE91C2B}"/>
+    <hyperlink ref="J15" r:id="rId51" xr:uid="{C9E3645C-04D8-4200-BC9B-9B7ECA30CE64}"/>
+    <hyperlink ref="AH10" r:id="rId52" display="https://www.youtube.com/watch?v=lV84LAcxwaA&amp;list=PLrLNIllEiqRAb-eDahuDJunDSC7lP2V78&amp;index=8&amp;t=0s" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="R9" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId55"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
 </worksheet>
 </file>
 

--- a/polls/ICRA2020Workshops.xlsx
+++ b/polls/ICRA2020Workshops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE068435-8A93-407B-884A-1E397D37C4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8421B8-7B8D-4D5F-8A13-FCF4D0D9EBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/polls/ICRA2020Workshops.xlsx
+++ b/polls/ICRA2020Workshops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8421B8-7B8D-4D5F-8A13-FCF4D0D9EBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA7DA5-2244-4745-AF24-A7075BCA05D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,7 +847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +863,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -873,8 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -887,16 +894,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1237,19 +1246,20 @@
   <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
     <col min="10" max="10" width="108.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -1437,9 +1447,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62">
       <c r="A2">
-        <v>1</v>
+        <v>20001</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1461,9 +1471,9 @@
       <c r="AD2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62">
       <c r="A3">
-        <v>2</v>
+        <v>20002</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1481,9 +1491,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62">
       <c r="A4">
-        <v>3</v>
+        <v>20003</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1498,9 +1508,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>20004</v>
       </c>
       <c r="B5" t="s">
         <v>226</v>
@@ -1614,9 +1624,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62">
       <c r="A6">
-        <v>5</v>
+        <v>20005</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -1634,9 +1644,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62">
       <c r="A7">
-        <v>6</v>
+        <v>20006</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -1654,9 +1664,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62">
       <c r="A8">
-        <v>7</v>
+        <v>20007</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -1674,9 +1684,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>20008</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -1814,9 +1824,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>20009</v>
       </c>
       <c r="B10" t="s">
         <v>127</v>
@@ -1954,9 +1964,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62">
       <c r="A11">
-        <v>10</v>
+        <v>20010</v>
       </c>
       <c r="B11" t="s">
         <v>157</v>
@@ -1974,9 +1984,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62">
       <c r="A12">
-        <v>11</v>
+        <v>20011</v>
       </c>
       <c r="B12" t="s">
         <v>161</v>
@@ -1995,9 +2005,9 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62">
       <c r="A13">
-        <v>12</v>
+        <v>20012</v>
       </c>
       <c r="B13" t="s">
         <v>165</v>
@@ -2012,9 +2022,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62">
       <c r="A14">
-        <v>13</v>
+        <v>20013</v>
       </c>
       <c r="B14" t="s">
         <v>168</v>
@@ -2032,9 +2042,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>20014</v>
       </c>
       <c r="B15" t="s">
         <v>227</v>
@@ -2217,7 +2227,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" s="1"/>
     </row>
   </sheetData>
@@ -2287,7 +2297,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2299,7 +2309,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
